--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3247195.698296338</v>
+        <v>3243140.773916837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223167</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7086382.698700414</v>
+        <v>7083432.80174832</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4231189229411</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>81.98605674545661</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +747,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>8.120254610424364</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>1.894826399417902</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>163.435030876915</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>24.09978067030116</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>88.36574038855323</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>47.77614120445767</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899737</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>28.81951265447253</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>215.3966750080341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>230.6764636728253</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>66.38398107272911</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1196,7 +1196,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>92.73469553428545</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>91.3201668585711</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>99.46191014566017</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>30.26587136802508</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>157.2659671964259</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1613,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1667,13 +1667,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>128.0652136235379</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.905627100594</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404328</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277191</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555349</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.5568836689351</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080571</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587582</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303131</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.8123861026104</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453468</v>
+        <v>20.92391191189601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443481</v>
+        <v>48.81858568179614</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896137</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431836</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.655907376953</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548316</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897099</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620411</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046313</v>
+        <v>67.32610467782446</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074554</v>
+        <v>52.47323292810687</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258526</v>
+        <v>38.04694813994659</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546438</v>
+        <v>37.9733901928257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523164</v>
+        <v>39.72284161259297</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762378</v>
+        <v>50.54167953498511</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419582</v>
+        <v>37.89393170155715</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536775</v>
+        <v>15.73364728272908</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982367</v>
+        <v>6.632145647184998</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535099</v>
+        <v>84.75808915271232</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.3320274868844</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.5545700139543</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008202</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.4672642215704</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682829</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175979</v>
+        <v>104.8511067449593</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>194.5629468581742</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>83.73065383658546</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
@@ -3961,7 +3961,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>262.2099645176021</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>191.8645777642404</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415636</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432163</v>
@@ -4198,7 +4198,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012912</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1010.885049426593</v>
+        <v>1322.110784678351</v>
       </c>
       <c r="C2" t="n">
-        <v>1010.885049426593</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.885049426593</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>1010.885049426593</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565708</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>180.8278554445739</v>
+        <v>502.9184932396669</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445739</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703876</v>
+        <v>185.1480988074505</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>185.1480988074505</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830293</v>
+        <v>678.4683905259793</v>
       </c>
       <c r="M2" t="n">
-        <v>1420.616275678884</v>
+        <v>1051.843641766319</v>
       </c>
       <c r="N2" t="n">
-        <v>1499.651765818661</v>
+        <v>1051.843641766319</v>
       </c>
       <c r="O2" t="n">
-        <v>1939.69136671099</v>
+        <v>1491.883242658648</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.07073479017</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="S2" t="n">
-        <v>1958.023371792989</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="T2" t="n">
-        <v>1742.444463790018</v>
+        <v>1801.415692490535</v>
       </c>
       <c r="U2" t="n">
-        <v>1742.444463790018</v>
+        <v>1801.415692490535</v>
       </c>
       <c r="V2" t="n">
-        <v>1400.337654493536</v>
+        <v>1801.415692490535</v>
       </c>
       <c r="W2" t="n">
-        <v>1400.337654493536</v>
+        <v>1801.415692490535</v>
       </c>
       <c r="X2" t="n">
-        <v>1010.885049426593</v>
+        <v>1718.60149375775</v>
       </c>
       <c r="Y2" t="n">
-        <v>1010.885049426593</v>
+        <v>1322.110784678351</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.567375016333</v>
+        <v>839.8643090386533</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764252</v>
+        <v>689.2100785987456</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979056</v>
+        <v>559.1211112202259</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087933</v>
+        <v>422.6746203311136</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3776863087933</v>
+        <v>298.2428142142454</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512717</v>
+        <v>89.88557988671077</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.55046658065</v>
+        <v>1289.384420380776</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>1790.551203376227</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297047</v>
+        <v>1790.551203376227</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750002</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649871</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.70539484878</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527421</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898488</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031775</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817871</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572944</v>
+        <v>991.6606434796147</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703876</v>
+        <v>652.9584692980902</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703876</v>
+        <v>652.9584692980902</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703876</v>
+        <v>497.325356200605</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703876</v>
+        <v>497.325356200605</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703876</v>
+        <v>497.325356200605</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703876</v>
+        <v>329.0713023000505</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703876</v>
+        <v>173.5927512615445</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="V4" t="n">
-        <v>783.0135240062348</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="W4" t="n">
-        <v>499.6831219374124</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="X4" t="n">
-        <v>265.6027997203954</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703876</v>
+        <v>818.0443590727518</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.8190021289316</v>
+        <v>86.81792459811732</v>
       </c>
       <c r="C5" t="n">
-        <v>548.6435006318623</v>
+        <v>62.47471179983332</v>
       </c>
       <c r="D5" t="n">
-        <v>548.6435006318623</v>
+        <v>62.47471179983332</v>
       </c>
       <c r="E5" t="n">
-        <v>548.6435006318623</v>
+        <v>62.47471179983332</v>
       </c>
       <c r="F5" t="n">
-        <v>131.74906216184</v>
+        <v>49.62067737021513</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074505</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>185.1480988074505</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>678.4683905259793</v>
       </c>
       <c r="M5" t="n">
-        <v>1151.464273687139</v>
+        <v>1051.843641766319</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687139</v>
+        <v>1051.843641766319</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579468</v>
+        <v>1491.883242658648</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.07073479017</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.92338121664</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792989</v>
+        <v>1820.409826157691</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.023371792989</v>
+        <v>1596.909223717107</v>
       </c>
       <c r="U5" t="n">
-        <v>1702.270642227587</v>
+        <v>1596.909223717107</v>
       </c>
       <c r="V5" t="n">
-        <v>1702.270642227587</v>
+        <v>1254.802414420626</v>
       </c>
       <c r="W5" t="n">
-        <v>1331.271607195875</v>
+        <v>883.8033793889131</v>
       </c>
       <c r="X5" t="n">
-        <v>941.8190021289316</v>
+        <v>883.8033793889131</v>
       </c>
       <c r="Y5" t="n">
-        <v>941.8190021289316</v>
+        <v>487.3126703095142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>505.9467430955133</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>355.2925126556055</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>225.2035452770858</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>88.75705438797354</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512717</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567661</v>
+        <v>360.2374719608488</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6057207567661</v>
+        <v>843.8035578591621</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2072945938143</v>
+        <v>843.8035578591621</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896689</v>
+        <v>883.7630516643783</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.92983465983</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297047</v>
+        <v>1790.551203376227</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931118</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829183</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851938</v>
+        <v>1866.068574729052</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.08476292796</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606602</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977669</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110956</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609673</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364746</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>708.2187092468254</v>
+        <v>521.5568656247099</v>
       </c>
       <c r="C7" t="n">
-        <v>708.2187092468254</v>
+        <v>521.5568656247099</v>
       </c>
       <c r="D7" t="n">
-        <v>679.1080904039238</v>
+        <v>521.5568656247099</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>521.5568656247099</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760992</v>
+        <v>364.2309308376829</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>195.9768769371284</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862236</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="V7" t="n">
-        <v>708.2187092468254</v>
+        <v>739.1292646227241</v>
       </c>
       <c r="W7" t="n">
-        <v>708.2187092468254</v>
+        <v>521.5568656247099</v>
       </c>
       <c r="X7" t="n">
-        <v>708.2187092468254</v>
+        <v>521.5568656247099</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.2187092468254</v>
+        <v>521.5568656247099</v>
       </c>
     </row>
     <row r="8">
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>371.4442765563904</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2260.601065026612</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2004.848335461211</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2004.848335461211</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1633.849300429498</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1244.396695362555</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="Y8" t="n">
-        <v>847.9059862831563</v>
+        <v>1080.912515245606</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>671.3093811653594</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="C10" t="n">
-        <v>671.3093811653594</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="D10" t="n">
-        <v>515.6762680678742</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1174559270767</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F10" t="n">
-        <v>202.7915211400496</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
         <v>202.7915211400496</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X10" t="n">
-        <v>856.5173998566606</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y10" t="n">
-        <v>856.5173998566606</v>
+        <v>622.0429194582225</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.815439560372</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.58061935049</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854347</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>3005.48980930107</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2729.431455556546</v>
+        <v>2467.273826752684</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.919531776791</v>
+        <v>2172.761902972929</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.36950398458</v>
+        <v>1871.211875180718</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
         <v>1208.156408878212</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443722</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5206,10 +5206,10 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
@@ -5227,19 +5227,19 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852104</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
         <v>583.3517043592135</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560372</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C14" t="n">
         <v>1529.58061935049</v>
@@ -5267,19 +5267,19 @@
         <v>609.4835710752454</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>291.2614968504367</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5315,13 +5315,13 @@
         <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556546</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.919531776791</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1986.669951879994</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082779</v>
@@ -5419,7 +5419,7 @@
         <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
         <v>234.1241141445331</v>
@@ -5452,7 +5452,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
         <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>261.1858216803428</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,43 +5917,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072211</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6145,22 +6145,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6361,22 +6361,22 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6388,10 +6388,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388005</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662623</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6500,10 +6500,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6598,73 +6598,73 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144918</v>
+        <v>890.2201666674343</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423738</v>
+        <v>590.5275805474765</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267642</v>
+        <v>87.68547930209974</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462902</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>570.182343680919</v>
       </c>
       <c r="L32" t="n">
-        <v>1092.011864115831</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.503271800797</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.805063078645</v>
+        <v>2252.184354569788</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970974</v>
+        <v>2794.477684958981</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102496</v>
+        <v>3142.665177090502</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243444</v>
+        <v>3327.510737231451</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231451</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491225</v>
+        <v>3278.199034522566</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448546</v>
+        <v>3171.900284432047</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281049</v>
+        <v>3033.349407216709</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.444450270292</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.647267588644</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871765</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142431</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846601</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.2619674447523</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662326</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602521</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462902</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643564</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649992</v>
+        <v>499.4043430265829</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633124</v>
+        <v>982.9704289248962</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>982.9704289248962</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590193</v>
+        <v>341.687256555481</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229127</v>
+        <v>288.6839909715347</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233317</v>
+        <v>250.2527302241139</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804384</v>
+        <v>211.8957704333808</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913155</v>
+        <v>171.7716879964183</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886652</v>
+        <v>120.7194864459282</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806335</v>
+        <v>82.44278775748667</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462902</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259938</v>
+        <v>151.6460076354897</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763216</v>
+        <v>348.3505842337297</v>
       </c>
       <c r="L34" t="n">
-        <v>610.2030886905072</v>
+        <v>627.3477595958277</v>
       </c>
       <c r="M34" t="n">
-        <v>904.9851746691571</v>
+        <v>813.6393379340917</v>
       </c>
       <c r="N34" t="n">
-        <v>1088.174808700366</v>
+        <v>996.828971965301</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245664</v>
+        <v>1159.533739007009</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022243</v>
+        <v>1279.409904783588</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392293</v>
+        <v>1326.455651519313</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501954</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034568</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569366</v>
+        <v>1115.625083552866</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448317</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279</v>
+        <v>798.6106513157204</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569817</v>
+        <v>632.4821015969625</v>
       </c>
       <c r="X34" t="n">
-        <v>576.172975937869</v>
+        <v>515.6036317300101</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524165</v>
+        <v>409.6934228967179</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960405</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7184,7 +7184,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229859</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072216</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838002</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1693.618740970509</v>
+        <v>1853.707880260104</v>
       </c>
       <c r="C41" t="n">
-        <v>1397.884491463573</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D41" t="n">
-        <v>1109.884614670374</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E41" t="n">
-        <v>804.7423417770518</v>
+        <v>964.8314810666463</v>
       </c>
       <c r="F41" t="n">
-        <v>485.2891552971628</v>
+        <v>645.3782945867573</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,16 +7445,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>3021.379967189023</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857849</v>
+        <v>2747.822184147443</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.721691781039</v>
+        <v>2455.810831070633</v>
       </c>
       <c r="Y41" t="n">
-        <v>1996.672234691773</v>
+        <v>2156.761373981368</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.2319501674404</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529118</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7603,16 +7603,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1535.307263395241</v>
+        <v>1779.97282070159</v>
       </c>
       <c r="C44" t="n">
-        <v>1239.573013888305</v>
+        <v>1484.238571194654</v>
       </c>
       <c r="D44" t="n">
-        <v>951.5731370951057</v>
+        <v>1196.238694401454</v>
       </c>
       <c r="E44" t="n">
-        <v>646.4308642017838</v>
+        <v>891.0964215081322</v>
       </c>
       <c r="F44" t="n">
-        <v>326.9776777218955</v>
+        <v>571.6432350282435</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>255.9217315063785</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="U44" t="n">
         <v>2947.644907630508</v>
       </c>
       <c r="V44" t="n">
-        <v>2702.979350324159</v>
+        <v>2947.644907630508</v>
       </c>
       <c r="W44" t="n">
-        <v>2429.42156728258</v>
+        <v>2674.087124588929</v>
       </c>
       <c r="X44" t="n">
-        <v>2137.41021420577</v>
+        <v>2382.075771512119</v>
       </c>
       <c r="Y44" t="n">
-        <v>1838.360757116505</v>
+        <v>2083.026314422853</v>
       </c>
     </row>
     <row r="45">
@@ -7731,13 +7731,13 @@
         <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
         <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160337</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107118</v>
+        <v>526.8717700223131</v>
       </c>
       <c r="N2" t="n">
-        <v>228.9523197618013</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8067,13 +8067,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.3211167565344</v>
+        <v>421.1962343712235</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216684</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,13 +8216,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>262.8776925020521</v>
+        <v>526.8717700223131</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>381.8836612786535</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671511</v>
+        <v>125.7352379099406</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216684</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>470.4637632346382</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>153.277245266684</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>647.2923877624991</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,22 +9240,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>486.9652344155852</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069886</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10829,10 +10829,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,7 +11379,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,7 +11388,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>145.2325565835401</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>243.0318988390539</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>145.2325565835406</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>145.2325565835411</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.521272659185342e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>118.0013416284708</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812804</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
@@ -25685,7 +25685,7 @@
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>158.4882478966995</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>50.3543239690428</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>32.51080269470204</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822791</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812804</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>612619.7476807855</v>
+        <v>611115.8786463848</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>612619.7476807855</v>
+        <v>611115.8786463848</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>589897.4452788222</v>
+        <v>589897.4452788221</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>589897.4452788221</v>
+        <v>589897.4452788222</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>592188.2093477927</v>
+        <v>592188.2093477926</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640912</v>
+        <v>703295.4945640913</v>
       </c>
       <c r="C2" t="n">
         <v>703295.4945640912</v>
       </c>
       <c r="D2" t="n">
-        <v>703295.4945640912</v>
+        <v>703295.4945640911</v>
       </c>
       <c r="E2" t="n">
-        <v>660956.8784646289</v>
+        <v>660956.8784646292</v>
       </c>
       <c r="F2" t="n">
-        <v>660956.8784646285</v>
+        <v>660956.8784646286</v>
       </c>
       <c r="G2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640913</v>
       </c>
       <c r="H2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640911</v>
       </c>
       <c r="I2" t="n">
         <v>703295.4945640907</v>
       </c>
       <c r="J2" t="n">
-        <v>703295.4945640911</v>
+        <v>703295.4945640912</v>
       </c>
       <c r="K2" t="n">
-        <v>703295.4945640905</v>
+        <v>703295.494564091</v>
       </c>
       <c r="L2" t="n">
-        <v>703295.4945640917</v>
+        <v>703295.4945640914</v>
       </c>
       <c r="M2" t="n">
         <v>703295.4945640907</v>
@@ -26350,7 +26350,7 @@
         <v>703295.4945640907</v>
       </c>
       <c r="O2" t="n">
-        <v>663838.8074546237</v>
+        <v>663838.8074546236</v>
       </c>
       <c r="P2" t="n">
         <v>663838.8074546236</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765503</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602675</v>
+        <v>26460.41160941783</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.9558730144</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923937</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767013</v>
+        <v>46725.80335481228</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436852</v>
+        <v>43782.97194555656</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015682</v>
+        <v>18983.5598301568</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224181.5440797613</v>
+        <v>229389.8493215834</v>
       </c>
       <c r="C4" t="n">
-        <v>224181.5440797613</v>
+        <v>229389.8493215833</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26433,7 +26433,7 @@
         <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761036</v>
@@ -26445,10 +26445,10 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186792.5147858255</v>
+        <v>186659.1201767708</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761036</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295299</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295299</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446764</v>
+        <v>60332.67530588344</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
         <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235198.0920618299</v>
+        <v>239850.3116830047</v>
       </c>
       <c r="C6" t="n">
-        <v>413193.3891961804</v>
+        <v>409499.3175595549</v>
       </c>
       <c r="D6" t="n">
-        <v>403410.019596101</v>
+        <v>395673.7303727097</v>
       </c>
       <c r="E6" t="n">
-        <v>313631.101485386</v>
+        <v>313522.5409312851</v>
       </c>
       <c r="F6" t="n">
-        <v>444084.0326230978</v>
+        <v>443975.4720689967</v>
       </c>
       <c r="G6" t="n">
-        <v>429665.8923994532</v>
+        <v>429665.8923994537</v>
       </c>
       <c r="H6" t="n">
-        <v>458760.8482724677</v>
+        <v>458760.8482724678</v>
       </c>
       <c r="I6" t="n">
         <v>458760.8482724676</v>
       </c>
       <c r="J6" t="n">
-        <v>230675.2049227185</v>
+        <v>237191.4900772913</v>
       </c>
       <c r="K6" t="n">
-        <v>452521.0798696844</v>
+        <v>452521.0798696848</v>
       </c>
       <c r="L6" t="n">
-        <v>413626.7329370972</v>
+        <v>409577.8957266248</v>
       </c>
       <c r="M6" t="n">
-        <v>416029.571338099</v>
+        <v>414977.876326911</v>
       </c>
       <c r="N6" t="n">
         <v>458760.8482724676</v>
       </c>
       <c r="O6" t="n">
-        <v>426099.6676103031</v>
+        <v>425998.4966177147</v>
       </c>
       <c r="P6" t="n">
-        <v>445083.2274404599</v>
+        <v>444982.0564478716</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327795</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327795</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880676</v>
+        <v>831.8776843078628</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.368694841268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087663</v>
+        <v>58.40725419351534</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165925</v>
+        <v>14.33013548902058</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769603</v>
+        <v>23.729449787696</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327795</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631057</v>
+        <v>85.18305253651556</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559186</v>
+        <v>646.8007142757137</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455255</v>
+        <v>129.6883820257303</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.368694841268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327795</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631057</v>
+        <v>85.18305253651556</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>7.842477493236402</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>303.5720222708171</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110.7389651384298</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>173.3191472836627</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>19.92090762747327</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.1439658117976</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,10 +27625,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>320.6653875683236</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>75.41134685124186</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408324</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>125.2572693120379</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,7 +27834,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>65.10042304010005</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>165.8133345814576</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>154.8816153434484</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>61.26852848510406</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>140.4193521362756</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431664</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28749,19 +28749,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634528126</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28989,22 +28989,22 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.636002634527898</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29296,13 +29296,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29314,7 +29314,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29712,7 +29712,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,16 +29776,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26.78466270501701</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>103.2865954513777</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539251</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>58.99686212483789</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>44.0641922885597</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265638</v>
       </c>
     </row>
     <row r="35">
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668742</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693167</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561693058</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M46" t="n">
-        <v>36.2490556169306</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693149</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129845</v>
+        <v>377.1467184245858</v>
       </c>
       <c r="N2" t="n">
-        <v>79.83382842401721</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>530.9490039023677</v>
+        <v>335.8241215170568</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.2290737327795</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,13 +34936,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>113.1526409043249</v>
+        <v>377.1467184245858</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>289.4965392293416</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129845</v>
+        <v>40.36312505577393</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327795</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>327.4053600554008</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>66.19388044736931</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>554.9052657131872</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122748</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>396.904887558667</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36045,19 +36045,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094869</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36285,22 +36285,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716068</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>528.575562627224</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,7 +36610,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851013</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>525.087987673228</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050167</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988362</v>
+        <v>649.172544571475</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>547.771040797164</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659185</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576767</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176607</v>
+        <v>85.95534635440472</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407351</v>
+        <v>198.6914915133738</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>281.8153286485838</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067171</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>223.3451116619167</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>47.52095629871219</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528348</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>6.174568144772601</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918894</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038439</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,7 +38108,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>224.4223670697226</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918903</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038439</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
